--- a/MVP/SHOPPING_LISTS/LASERBEEST/LASERBEEST.xlsx
+++ b/MVP/SHOPPING_LISTS/LASERBEEST/LASERBEEST.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>

--- a/MVP/SHOPPING_LISTS/LASERBEEST/LASERBEEST.xlsx
+++ b/MVP/SHOPPING_LISTS/LASERBEEST/LASERBEEST.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -64,6 +64,15 @@
     <t>13-018433</t>
   </si>
   <si>
+    <t>13-018746</t>
+  </si>
+  <si>
+    <t>13-018747</t>
+  </si>
+  <si>
+    <t>13-018748</t>
+  </si>
+  <si>
     <t>MVP-PRT: CARTRIDGE</t>
   </si>
   <si>
@@ -82,6 +91,15 @@
     <t>MVP-PRT: FRONT COVER</t>
   </si>
   <si>
+    <t>MVP-PRT: COVER A</t>
+  </si>
+  <si>
+    <t>MVP-PRT: COVER B</t>
+  </si>
+  <si>
+    <t>MVP-PRT: COVER C</t>
+  </si>
+  <si>
     <t>VITROTEM</t>
   </si>
   <si>
@@ -89,6 +107,12 @@
   </si>
   <si>
     <t>PMMA</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>Material &lt;not specified&gt;</t>
   </si>
 </sst>
 </file>
@@ -460,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -470,13 +494,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -511,25 +535,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -537,25 +561,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -563,25 +587,25 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -589,25 +613,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -615,25 +639,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -641,27 +665,105 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="1">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="1">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="1">
+        <v>127</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1">
         <v>1</v>
       </c>
     </row>
